--- a/ENCUESTA/Resultado_encuesta.xlsx
+++ b/ENCUESTA/Resultado_encuesta.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mercedes_Soriano\Desktop\tesis2018-master\tesis2018-master\ENCUESTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plataformavirtual.NUR.000\Desktop\tesis\ENCUESTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>Pregunta 1</t>
   </si>
@@ -219,19 +219,89 @@
   </si>
   <si>
     <t>¿Como de dificil te resulta encontrar en la plataforma tus materias?</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,7 +312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -366,47 +436,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,7 +790,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>184</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>157</c:v>
@@ -721,25 +860,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
@@ -1414,16 +1535,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17690</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>154441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>17690</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1708,22 +1829,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW104"/>
+  <dimension ref="A1:BV172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
-    <col min="2" max="2" width="50.7109375" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.42578125" style="9"/>
+    <col min="2" max="2" width="50.7109375" style="9" customWidth="1"/>
+    <col min="3" max="5" width="11.42578125" style="9"/>
+    <col min="6" max="6" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:74" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1735,13 +1858,13 @@
       <c r="E1" s="2">
         <v>1</v>
       </c>
-      <c r="F1" s="2">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2">
+      <c r="G1" s="2">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2">
         <v>1</v>
       </c>
       <c r="M1" s="2">
@@ -1753,13 +1876,13 @@
       <c r="O1" s="2">
         <v>1</v>
       </c>
-      <c r="P1" s="2">
-        <v>1</v>
-      </c>
-      <c r="R1" s="2">
-        <v>1</v>
-      </c>
-      <c r="U1" s="2">
+      <c r="Q1" s="2">
+        <v>1</v>
+      </c>
+      <c r="T1" s="2">
+        <v>1</v>
+      </c>
+      <c r="W1" s="2">
         <v>1</v>
       </c>
       <c r="X1" s="2">
@@ -1774,7 +1897,7 @@
       <c r="AA1" s="2">
         <v>1</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AF1" s="2">
         <v>1</v>
       </c>
       <c r="AG1" s="2">
@@ -1798,52 +1921,49 @@
       <c r="AM1" s="2">
         <v>1</v>
       </c>
-      <c r="AN1" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP1" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS1" s="2">
+      <c r="AO1" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="2">
         <v>1</v>
       </c>
       <c r="BA1" s="2">
         <v>1</v>
       </c>
-      <c r="BB1" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE1" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG1" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI1" s="2">
-        <v>1</v>
-      </c>
-      <c r="BK1" s="2">
+      <c r="BD1" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF1" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH1" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL1" s="2">
         <v>1</v>
       </c>
       <c r="BM1" s="2">
         <v>1</v>
       </c>
-      <c r="BN1" s="2">
-        <v>1</v>
-      </c>
-      <c r="BP1" s="2">
-        <v>1</v>
-      </c>
-      <c r="BR1" s="2">
-        <v>1</v>
-      </c>
-      <c r="BW1" s="3">
-        <f>SUM(B1:BV1)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:75" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+      <c r="BO1" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ1" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV1" s="3">
+        <f>SUM(B1:BU1)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:74" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1853,31 +1973,34 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
         <v>1</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
       </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3">
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
         <v>1</v>
       </c>
       <c r="S2" s="3">
         <v>1</v>
       </c>
-      <c r="T2" s="3">
+      <c r="U2" s="3">
         <v>1</v>
       </c>
       <c r="V2" s="3">
         <v>1</v>
       </c>
-      <c r="W2" s="3">
+      <c r="AB2" s="3">
         <v>1</v>
       </c>
       <c r="AC2" s="3">
@@ -1889,16 +2012,16 @@
       <c r="AE2" s="3">
         <v>1</v>
       </c>
-      <c r="AF2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="3">
+      <c r="AN2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="3">
         <v>1</v>
       </c>
       <c r="AQ2" s="3">
         <v>1</v>
       </c>
-      <c r="AR2" s="3">
+      <c r="AS2" s="3">
         <v>1</v>
       </c>
       <c r="AT2" s="3">
@@ -1919,46 +2042,43 @@
       <c r="AY2" s="3">
         <v>1</v>
       </c>
-      <c r="AZ2" s="3">
+      <c r="BB2" s="3">
         <v>1</v>
       </c>
       <c r="BC2" s="3">
         <v>1</v>
       </c>
-      <c r="BD2" s="3">
-        <v>1</v>
-      </c>
-      <c r="BF2" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH2" s="3">
-        <v>1</v>
-      </c>
-      <c r="BJ2" s="3">
-        <v>1</v>
-      </c>
-      <c r="BL2" s="3">
-        <v>1</v>
-      </c>
-      <c r="BO2" s="3">
-        <v>1</v>
-      </c>
-      <c r="BQ2" s="3">
+      <c r="BE2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BP2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="3">
         <v>1</v>
       </c>
       <c r="BS2" s="3">
         <v>1</v>
       </c>
-      <c r="BT2" s="3">
-        <v>1</v>
-      </c>
-      <c r="BW2" s="3">
-        <f>SUM(B2:BV2)</f>
+      <c r="BV2" s="3">
+        <f>SUM(B2:BU2)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:75" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:74" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2006,7 +2126,7 @@
       <c r="P3" s="2">
         <v>1</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="R3" s="2">
         <v>1</v>
       </c>
       <c r="S3" s="2">
@@ -2144,7 +2264,7 @@
       <c r="BK3" s="2">
         <v>1</v>
       </c>
-      <c r="BL3" s="2">
+      <c r="BM3" s="2">
         <v>1</v>
       </c>
       <c r="BN3" s="2">
@@ -2153,7 +2273,7 @@
       <c r="BO3" s="2">
         <v>1</v>
       </c>
-      <c r="BP3" s="2">
+      <c r="BQ3" s="2">
         <v>1</v>
       </c>
       <c r="BR3" s="2">
@@ -2162,44 +2282,41 @@
       <c r="BS3" s="2">
         <v>1</v>
       </c>
-      <c r="BT3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BW3" s="3">
-        <f t="shared" ref="BW3:BW18" si="0">SUM(B3:BV3)</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:75" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="BV3" s="3">
+        <f t="shared" ref="BV3:BV18" si="0">SUM(B3:BU3)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:74" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="R4" s="3">
-        <v>1</v>
-      </c>
-      <c r="BM4" s="3">
-        <v>1</v>
-      </c>
-      <c r="BQ4" s="3">
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="3">
         <v>1</v>
       </c>
       <c r="BU4" s="3">
         <v>1</v>
       </c>
       <c r="BV4" s="3">
-        <v>1</v>
-      </c>
-      <c r="BW4" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:75" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:74" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2211,67 +2328,70 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
         <v>1</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>1</v>
       </c>
-      <c r="P5" s="2">
+      <c r="S5" s="2">
         <v>1</v>
       </c>
       <c r="T5" s="2">
         <v>1</v>
       </c>
-      <c r="U5" s="2">
+      <c r="V5" s="2">
         <v>1</v>
       </c>
       <c r="W5" s="2">
         <v>1</v>
       </c>
-      <c r="X5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="2">
+      <c r="AD5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="2">
         <v>1</v>
       </c>
       <c r="AI5" s="2">
         <v>1</v>
       </c>
-      <c r="AJ5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="2">
+      <c r="AM5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="2">
         <v>1</v>
       </c>
       <c r="AQ5" s="2">
         <v>1</v>
       </c>
-      <c r="AR5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="2">
+      <c r="AT5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="2">
         <v>1</v>
       </c>
       <c r="AW5" s="2">
         <v>1</v>
       </c>
-      <c r="AX5" s="2">
+      <c r="AY5" s="2">
         <v>1</v>
       </c>
       <c r="AZ5" s="2">
@@ -2283,7 +2403,7 @@
       <c r="BB5" s="2">
         <v>1</v>
       </c>
-      <c r="BC5" s="2">
+      <c r="BD5" s="2">
         <v>1</v>
       </c>
       <c r="BE5" s="2">
@@ -2301,13 +2421,13 @@
       <c r="BI5" s="2">
         <v>1</v>
       </c>
-      <c r="BJ5" s="2">
+      <c r="BN5" s="2">
         <v>1</v>
       </c>
       <c r="BO5" s="2">
         <v>1</v>
       </c>
-      <c r="BP5" s="2">
+      <c r="BQ5" s="2">
         <v>1</v>
       </c>
       <c r="BR5" s="2">
@@ -2316,129 +2436,123 @@
       <c r="BS5" s="2">
         <v>1</v>
       </c>
-      <c r="BT5" s="2">
-        <v>1</v>
-      </c>
-      <c r="BW5" s="3">
+      <c r="BV5" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:75" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:74" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK6" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL6" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN6" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW6" s="3">
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="6">
+        <v>1</v>
+      </c>
+      <c r="X6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="6">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="6">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="6">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="6">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:75" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:74" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="V7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="3">
-        <v>1</v>
-      </c>
-      <c r="BW7" s="3">
+      <c r="U7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:75" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:74" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2453,6 +2567,9 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
@@ -2462,7 +2579,7 @@
       <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="2">
@@ -2477,13 +2594,13 @@
       <c r="O8" s="2">
         <v>1</v>
       </c>
-      <c r="P8" s="2">
+      <c r="S8" s="2">
         <v>1</v>
       </c>
       <c r="T8" s="2">
         <v>1</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <v>1</v>
       </c>
       <c r="W8" s="2">
@@ -2492,10 +2609,10 @@
       <c r="X8" s="2">
         <v>1</v>
       </c>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="2">
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="2">
         <v>1</v>
       </c>
       <c r="AD8" s="2">
@@ -2507,22 +2624,22 @@
       <c r="AF8" s="2">
         <v>1</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AH8" s="2">
         <v>1</v>
       </c>
       <c r="AI8" s="2">
         <v>1</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AL8" s="2">
         <v>1</v>
       </c>
       <c r="AM8" s="2">
         <v>1</v>
       </c>
-      <c r="AN8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="2">
+      <c r="AQ8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="2">
         <v>1</v>
       </c>
       <c r="AU8" s="2">
@@ -2534,7 +2651,7 @@
       <c r="AW8" s="2">
         <v>1</v>
       </c>
-      <c r="AX8" s="2">
+      <c r="AY8" s="2">
         <v>1</v>
       </c>
       <c r="AZ8" s="2">
@@ -2570,7 +2687,7 @@
       <c r="BJ8" s="2">
         <v>1</v>
       </c>
-      <c r="BK8" s="2">
+      <c r="BM8" s="2">
         <v>1</v>
       </c>
       <c r="BN8" s="2">
@@ -2579,7 +2696,7 @@
       <c r="BO8" s="2">
         <v>1</v>
       </c>
-      <c r="BP8" s="2">
+      <c r="BQ8" s="2">
         <v>1</v>
       </c>
       <c r="BR8" s="2">
@@ -2588,53 +2705,50 @@
       <c r="BS8" s="2">
         <v>1</v>
       </c>
-      <c r="BT8" s="2">
-        <v>1</v>
-      </c>
-      <c r="BW8" s="3">
+      <c r="BV8" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:75" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:74" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="3">
         <v>1</v>
       </c>
       <c r="Z9" s="3">
         <v>1</v>
       </c>
-      <c r="AA9" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="3">
+      <c r="AB9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="3">
         <v>1</v>
       </c>
       <c r="AK9" s="3">
         <v>1</v>
       </c>
-      <c r="AL9" s="3">
+      <c r="AN9" s="3">
         <v>1</v>
       </c>
       <c r="AO9" s="3">
@@ -2643,28 +2757,25 @@
       <c r="AP9" s="3">
         <v>1</v>
       </c>
-      <c r="AQ9" s="3">
+      <c r="AR9" s="3">
         <v>1</v>
       </c>
       <c r="AS9" s="3">
         <v>1</v>
       </c>
-      <c r="AT9" s="3">
-        <v>1</v>
-      </c>
-      <c r="AY9" s="3">
-        <v>1</v>
-      </c>
-      <c r="BL9" s="3">
-        <v>1</v>
-      </c>
-      <c r="BW9" s="3">
+      <c r="AX9" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK9" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV9" s="3">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:75" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:74" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2673,13 +2784,16 @@
       <c r="C10" s="2">
         <v>7</v>
       </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="2">
+      <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="2">
@@ -2697,13 +2811,13 @@
       <c r="P10" s="2">
         <v>1</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="S10" s="2">
         <v>1</v>
       </c>
       <c r="T10" s="2">
         <v>1</v>
       </c>
-      <c r="U10" s="2">
+      <c r="V10" s="2">
         <v>1</v>
       </c>
       <c r="W10" s="2">
@@ -2712,37 +2826,37 @@
       <c r="X10" s="2">
         <v>1</v>
       </c>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="2">
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="2">
         <v>1</v>
       </c>
       <c r="AF10" s="2">
         <v>1</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AH10" s="2">
         <v>1</v>
       </c>
       <c r="AI10" s="2">
         <v>1</v>
       </c>
-      <c r="AJ10" s="2">
+      <c r="AL10" s="2">
         <v>1</v>
       </c>
       <c r="AM10" s="2">
         <v>1</v>
       </c>
-      <c r="AN10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR10" s="2">
+      <c r="AO10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
@@ -2757,7 +2871,7 @@
       <c r="AW10" s="2">
         <v>1</v>
       </c>
-      <c r="AX10" s="2">
+      <c r="AY10" s="2">
         <v>1</v>
       </c>
       <c r="AZ10" s="2">
@@ -2781,16 +2895,16 @@
       <c r="BF10" s="2">
         <v>1</v>
       </c>
-      <c r="BG10" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI10" s="2">
-        <v>1</v>
-      </c>
-      <c r="BN10" s="2">
-        <v>1</v>
-      </c>
-      <c r="BP10" s="2">
+      <c r="BH10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ10" s="2">
         <v>1</v>
       </c>
       <c r="BR10" s="2">
@@ -2799,16 +2913,13 @@
       <c r="BS10" s="2">
         <v>1</v>
       </c>
-      <c r="BT10" s="2">
-        <v>1</v>
-      </c>
-      <c r="BW10" s="3">
+      <c r="BV10" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:75" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:74" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -2821,55 +2932,55 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="3">
+      <c r="I11" s="3">
         <v>1</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
       </c>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
-      <c r="S11" s="3">
-        <v>1</v>
-      </c>
-      <c r="V11" s="3">
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3">
         <v>1</v>
       </c>
       <c r="Z11" s="3">
         <v>1</v>
       </c>
-      <c r="AA11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="3">
+      <c r="AB11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="3">
         <v>1</v>
       </c>
       <c r="AK11" s="3">
         <v>1</v>
       </c>
-      <c r="AL11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AS11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AY11" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="3">
+      <c r="AN11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="3">
         <v>1</v>
       </c>
       <c r="BJ11" s="3">
@@ -2878,19 +2989,16 @@
       <c r="BK11" s="3">
         <v>1</v>
       </c>
-      <c r="BL11" s="3">
-        <v>1</v>
-      </c>
-      <c r="BO11" s="3">
-        <v>1</v>
-      </c>
-      <c r="BW11" s="3">
+      <c r="BN11" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV11" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:75" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:74" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2899,13 +3007,16 @@
       <c r="C12" s="2">
         <v>4</v>
       </c>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
         <v>1</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="2">
@@ -2917,34 +3028,34 @@
       <c r="N12" s="2">
         <v>1</v>
       </c>
-      <c r="O12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="2">
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
         <v>1</v>
       </c>
       <c r="T12" s="2">
         <v>1</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <v>1</v>
       </c>
       <c r="W12" s="2">
         <v>1</v>
       </c>
-      <c r="X12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="2">
+      <c r="AC12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="2">
         <v>1</v>
       </c>
       <c r="AI12" s="2">
         <v>1</v>
       </c>
-      <c r="AJ12" s="2">
+      <c r="AL12" s="2">
         <v>1</v>
       </c>
       <c r="AM12" s="2">
@@ -2953,1012 +3064,1696 @@
       <c r="AN12" s="2">
         <v>1</v>
       </c>
-      <c r="AO12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="2">
+      <c r="AT12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="2">
         <v>1</v>
       </c>
       <c r="AW12" s="2">
         <v>1</v>
       </c>
-      <c r="AX12" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA12" s="2">
+      <c r="AZ12" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="2">
         <v>1</v>
       </c>
       <c r="BE12" s="2">
         <v>1</v>
       </c>
-      <c r="BF12" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI12" s="2">
-        <v>1</v>
-      </c>
-      <c r="BK12" s="2">
-        <v>1</v>
-      </c>
-      <c r="BP12" s="2">
-        <v>1</v>
-      </c>
-      <c r="BS12" s="2">
-        <v>1</v>
-      </c>
-      <c r="BW12" s="3">
+      <c r="BH12" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR12" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV12" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:75" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:74" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
         <v>4</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1">
-        <v>1</v>
-      </c>
-      <c r="S13" s="1">
-        <v>1</v>
-      </c>
-      <c r="V13" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AZ13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BC13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BH13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BR13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BT13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW13" s="3">
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6">
+        <v>1</v>
+      </c>
+      <c r="R13" s="6">
+        <v>1</v>
+      </c>
+      <c r="U13" s="6">
+        <v>1</v>
+      </c>
+      <c r="X13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="6">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB13" s="6">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="6">
+        <v>1</v>
+      </c>
+      <c r="BF13" s="6">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="6">
+        <v>1</v>
+      </c>
+      <c r="BI13" s="6">
+        <v>1</v>
+      </c>
+      <c r="BM13" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN13" s="6">
+        <v>1</v>
+      </c>
+      <c r="BQ13" s="6">
+        <v>1</v>
+      </c>
+      <c r="BS13" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV13" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:75" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:74" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="7">
         <v>2</v>
       </c>
-      <c r="AA14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AY14" s="3">
-        <v>1</v>
-      </c>
-      <c r="BL14" s="3">
-        <v>1</v>
-      </c>
-      <c r="BW14" s="3">
+      <c r="Z14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK14" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:75" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:74" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="AH15" s="2">
+        <v>1</v>
+      </c>
       <c r="AI15" s="2">
         <v>1</v>
       </c>
-      <c r="AJ15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS15" s="2">
+      <c r="AL15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA15" s="2">
         <v>1</v>
       </c>
       <c r="BB15" s="2">
         <v>1</v>
       </c>
-      <c r="BC15" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE15" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH15" s="2">
-        <v>1</v>
-      </c>
-      <c r="BN15" s="2">
-        <v>1</v>
-      </c>
-      <c r="BR15" s="2">
-        <v>1</v>
-      </c>
-      <c r="BW15" s="3">
+      <c r="BD15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV15" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:75" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:74" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1</v>
-      </c>
-      <c r="U16" s="1">
-        <v>1</v>
-      </c>
-      <c r="W16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BA16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW16" s="3">
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1</v>
+      </c>
+      <c r="T16" s="6">
+        <v>1</v>
+      </c>
+      <c r="V16" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="6">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="6">
+        <v>1</v>
+      </c>
+      <c r="BF16" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV16" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:75" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:74" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="6">
         <v>4</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="P17" s="1">
-        <v>1</v>
-      </c>
-      <c r="S17" s="1">
-        <v>1</v>
-      </c>
-      <c r="T17" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AZ17" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD17" s="1">
-        <v>1</v>
-      </c>
-      <c r="BI17" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ17" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK17" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL17" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO17" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP17" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS17" s="1">
-        <v>1</v>
-      </c>
-      <c r="BT17" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW17" s="3">
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6">
+        <v>1</v>
+      </c>
+      <c r="S17" s="6">
+        <v>1</v>
+      </c>
+      <c r="X17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AY17" s="6">
+        <v>1</v>
+      </c>
+      <c r="BC17" s="6">
+        <v>1</v>
+      </c>
+      <c r="BH17" s="6">
+        <v>1</v>
+      </c>
+      <c r="BI17" s="6">
+        <v>1</v>
+      </c>
+      <c r="BJ17" s="6">
+        <v>1</v>
+      </c>
+      <c r="BK17" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN17" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO17" s="6">
+        <v>1</v>
+      </c>
+      <c r="BR17" s="6">
+        <v>1</v>
+      </c>
+      <c r="BS17" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV17" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:74" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>1</v>
-      </c>
-      <c r="V18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK18" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW18" s="3">
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6">
+        <v>1</v>
+      </c>
+      <c r="U18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV18" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:75" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:74" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Z19" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL19" s="5">
-        <v>1</v>
-      </c>
-      <c r="AQ19" s="5">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="5">
-        <v>1</v>
-      </c>
-      <c r="BW19" s="5">
-        <f>SUM(B19:BV19)</f>
+      <c r="Y19" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="8">
+        <v>1</v>
+      </c>
+      <c r="BV19" s="8">
+        <f>SUM(B19:BU19)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>1</v>
-      </c>
-      <c r="B23" s="8" t="s">
+    <row r="22" spans="1:74" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="6">
-        <v>184</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="C25" s="15">
+        <v>181</v>
+      </c>
+      <c r="F25" s="9">
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:74" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="17">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:75" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+    <row r="28" spans="1:74" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:74" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>2</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="15">
         <v>313</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="E31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="6">
+      <c r="F31" s="9">
         <v>341</v>
       </c>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:74" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="17">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>3</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="15">
         <v>8</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="E37" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="6">
+      <c r="F37" s="9">
         <f>SUM(C37:C40)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="15">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>4</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="C43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="15">
         <v>174</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="E45" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G45" s="6">
+      <c r="F45" s="9">
         <v>341</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="15">
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="17">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+    <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>5</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="15">
         <v>232</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="E52" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G52" s="6">
+      <c r="F52" s="9">
         <v>341</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="17">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+    <row r="55" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>6</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="C56" s="11"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="13"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="15">
         <v>218</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="E58" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="6">
+      <c r="F58" s="9">
         <v>341</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+    <row r="59" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="17">
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+    <row r="61" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>7</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="C62" s="11"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="13"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="15">
         <v>144</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="E64" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G64" s="6">
+      <c r="F64" s="9">
         <v>341</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="15">
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+    <row r="66" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="17">
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+    <row r="68" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>8</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="C69" s="11"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="13"/>
+    </row>
+    <row r="71" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="15">
         <v>5</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="E71" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G71" s="6">
+      <c r="F71" s="9">
         <f>SUM(C71:C95)</f>
         <v>341</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+    <row r="72" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+    <row r="74" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B75" s="9" t="s">
+    <row r="75" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="15">
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="9" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="15">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B77" s="9" t="s">
+    <row r="77" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="15">
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="9" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="15">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="9" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="15">
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="9" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="9" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="9" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="15">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="9" t="s">
+    <row r="83" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C83" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="9" t="s">
+      <c r="C83" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="15">
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="9" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="9" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="9" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="9" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B89" s="9" t="s">
+    <row r="89" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B90" s="9" t="s">
+    <row r="90" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B90" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="15">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="9" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B91" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B92" s="9" t="s">
+    <row r="92" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B93" s="9" t="s">
+    <row r="93" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="9" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="9" t="s">
+    <row r="95" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
+    <row r="97" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>7</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="C98" s="11"/>
+      <c r="E98" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="6">
+      <c r="F98" s="9">
         <f>SUM(C100:C104)</f>
         <v>341</v>
       </c>
     </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
+    </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="15">
         <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="15">
         <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="15">
         <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="B103" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="15">
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="6" t="s">
+    <row r="104" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="17">
         <v>32</v>
       </c>
     </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G108" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>1</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="11"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="13"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="15">
+        <v>27</v>
+      </c>
+      <c r="F113" s="9">
+        <f>C113+C114</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>2</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C117" s="11"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="13"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="15">
+        <v>36</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119" s="9">
+        <f>C119+C120</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>3</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" s="11"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="13"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="15">
+        <v>2</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F125" s="9">
+        <f>SUM(C125:C128)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C128" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>4</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C131" s="11"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="13"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="15">
+        <v>15</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F133" s="9">
+        <f>C133+C134+C135</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>5</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C138" s="11"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="5"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="13"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="15">
+        <v>20</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F140" s="9">
+        <f>C140+C141</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>6</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C144" s="11"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="5"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="13"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="15">
+        <v>25</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F146" s="9">
+        <f>C146+C147</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>7</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C150" s="11"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="5"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="13"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="15">
+        <v>10</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F152" s="9">
+        <f>C152+C153+C154</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>8</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157" s="11"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="13"/>
+    </row>
+    <row r="159" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C159" s="15">
+        <v>2</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F159" s="9">
+        <f>SUM(C159:C172)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C160" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C161" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B162" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C162" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B163" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C163" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B164" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C164" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B165" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C165" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B166" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C166" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C167" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B168" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C168" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A169" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C169" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C170" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C171" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B172" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C172" s="17">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="41">
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:C158"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B138:C139"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B144:C145"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="B150:C151"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:C118"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:C124"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:C132"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:C99"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:C112"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:C36"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C30"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A4"/>
@@ -3968,6 +4763,7 @@
     <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>